--- a/GovData/waste/waste_composition.xlsx
+++ b/GovData/waste/waste_composition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wshyar/Documents/Proj/CCDH/GovData/waste/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E973A5-D77F-0246-985F-FF3FA69D1135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769A9D52-A75C-4746-86CA-458E432FBB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="16720" xr2:uid="{0F1267C6-D582-1A42-8C03-28885062ED37}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="16680" xr2:uid="{0F1267C6-D582-1A42-8C03-28885062ED37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Diapers</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -99,11 +99,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -466,9 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5114D6-D61F-8540-8241-0585939D1908}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -477,15 +473,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>31.41</v>
@@ -493,7 +489,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>17.14</v>
@@ -501,7 +497,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>9.69</v>
@@ -509,7 +505,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>7.1</v>
@@ -517,7 +513,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>7.02</v>
@@ -525,7 +521,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>3.76</v>
@@ -533,7 +529,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2.67</v>
@@ -541,7 +537,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2.36</v>
@@ -549,7 +545,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2.1800000000000002</v>
@@ -557,7 +553,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0.84</v>
@@ -565,7 +561,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1.51</v>
@@ -573,7 +569,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1.29</v>
@@ -581,7 +577,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>4.05</v>
@@ -589,7 +585,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>3.98</v>
